--- a/Descargas/R15_7º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Diciembre.xlsx
+++ b/Descargas/R15_7º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Diciembre.xlsx
@@ -341,7 +341,7 @@
         </is>
       </c>
       <c r="B14" s="65">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -351,7 +351,7 @@
         </is>
       </c>
       <c r="B15" s="65">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16">
@@ -751,7 +751,7 @@
         </is>
       </c>
       <c r="B55" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -1391,7 +1391,7 @@
         </is>
       </c>
       <c r="B119" s="65">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120">
